--- a/skjölin frá Birgi/Files/visitala.xlsx
+++ b/skjölin frá Birgi/Files/visitala.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ingolfur\Documents\GitHub\engx-project-group20\skjölin frá Birgi\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB2856D-C72A-4503-AA1F-2BDAD367F33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C042F-817B-4B22-8A9B-6E1A335391CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VIS01004" sheetId="2" r:id="rId1"/>
     <sheet name="ársvísitala" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="349">
   <si>
     <t>Vísitölur til verðtryggingar</t>
   </si>
@@ -1070,6 +1071,18 @@
   </si>
   <si>
     <t>prósentur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  =216.3105</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>100*exp(15*x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  =ln(216.3105/100)/15</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1152,6 +1165,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,6 +1187,1006 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ársvísitala!$F$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>102.02474690663668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.31833520809899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.51813355193875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.92584943735474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146.54242430232244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.47994898082004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.55242637600986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259.31441426092124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270.05588999808913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>288.82634759940271</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>305.75230936706123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>255.73392234853219</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>277.80549905625855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>637.45305730383973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>670.76455769919778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE6C-4E3D-9E1F-E29190D9F13F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ársvísitala!$F$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>113.5284409325136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.88706900567229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146.32348000575271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166.11876556872932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188.5920446465156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>214.10560800993915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243.07075872276286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>275.95444274078449</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>313.2867765276186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>355.66959303953337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>403.78614384879813</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>458.41211381305715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>520.42812585774357</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>590.83393746059596</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>670.76455769919698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE6C-4E3D-9E1F-E29190D9F13F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1477296911"/>
+        <c:axId val="1474805279"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1477296911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1474805279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1474805279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477296911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC515B1-3E32-0218-899A-18181FB1D01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5910,10 +6929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3C0BA-51A0-4C9A-8C5C-CE93D5EBCDF6}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5924,7 +6943,7 @@
     <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>342</v>
       </c>
@@ -5935,7 +6954,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>177.8</v>
       </c>
@@ -5946,7 +6965,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>181.4</v>
       </c>
@@ -5956,8 +6975,71 @@
       <c r="C3" s="7">
         <v>1997</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="7">
+        <v>100</v>
+      </c>
+      <c r="F3" s="7">
+        <f>E3*(1+F4)</f>
+        <v>102.02474690663668</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:T3" si="0">F3*(1+G4)</f>
+        <v>103.31833520809899</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>129.51813355193875</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" si="0"/>
+        <v>134.92584943735474</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="0"/>
+        <v>146.54242430232244</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" si="0"/>
+        <v>149.47994898082004</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" si="0"/>
+        <v>153.55242637600986</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" si="0"/>
+        <v>259.31441426092124</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" si="0"/>
+        <v>270.05588999808913</v>
+      </c>
+      <c r="O3" s="7">
+        <f t="shared" si="0"/>
+        <v>288.82634759940271</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" si="0"/>
+        <v>305.75230936706123</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" si="0"/>
+        <v>255.73392234853219</v>
+      </c>
+      <c r="R3" s="7">
+        <f t="shared" si="0"/>
+        <v>277.80549905625855</v>
+      </c>
+      <c r="S3" s="7">
+        <f t="shared" si="0"/>
+        <v>637.45305730383973</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" si="0"/>
+        <v>670.76455769919778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>183.7</v>
       </c>
@@ -5967,8 +7049,60 @@
       <c r="C4" s="7">
         <v>1998</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="9">
+        <v>2.0247469066366763E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1.2679162072767314E-2</v>
+      </c>
+      <c r="H4" s="9">
+        <f>G4*20</f>
+        <v>0.25358324145534628</v>
+      </c>
+      <c r="I4" s="9">
+        <v>4.1752577319587703E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>8.6095992083127237E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2.0045558086560389E-2</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2.7244305493523857E-2</v>
+      </c>
+      <c r="M4" s="9">
+        <f>J4*4*2</f>
+        <v>0.6887679366650179</v>
+      </c>
+      <c r="N4" s="9">
+        <v>4.1422594142259461E-2</v>
+      </c>
+      <c r="O4" s="9">
+        <v>6.950582563278429E-2</v>
+      </c>
+      <c r="P4" s="9">
+        <v>5.8602554470323254E-2</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>-0.163591199432221</v>
+      </c>
+      <c r="R4" s="9">
+        <v>8.6306800853918952E-2</v>
+      </c>
+      <c r="S4" s="9">
+        <f>R4*15</f>
+        <v>1.2946020128087843</v>
+      </c>
+      <c r="T4" s="9">
+        <v>5.2257181942544584E-2</v>
+      </c>
+      <c r="U4" s="9">
+        <f>AVERAGE(F4:T4)</f>
+        <v>0.17263480084404609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>194</v>
       </c>
@@ -5978,8 +7112,53 @@
       <c r="C5" s="7">
         <v>1999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="7">
+        <v>1996</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1997</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1998</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1999</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2001</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2002</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2003</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2004</v>
+      </c>
+      <c r="O5" s="7">
+        <v>2005</v>
+      </c>
+      <c r="P5" s="7">
+        <v>2006</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2007</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2008</v>
+      </c>
+      <c r="S5" s="7">
+        <v>2009</v>
+      </c>
+      <c r="T5" s="7">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>202.1</v>
       </c>
@@ -5989,8 +7168,12 @@
       <c r="C6" s="7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6" s="7">
+        <f>COUNTA(F5:T5)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>219.5</v>
       </c>
@@ -6000,8 +7183,72 @@
       <c r="C7" s="7">
         <v>2001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="7">
+        <f>E3</f>
+        <v>100</v>
+      </c>
+      <c r="F7" s="7">
+        <f>E7*EXP($G$13)</f>
+        <v>113.5284409325136</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" ref="G7:T7" si="1">F7*EXP($G$13)</f>
+        <v>128.88706900567229</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>146.32348000575271</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>166.11876556872932</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="1"/>
+        <v>188.5920446465156</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>214.10560800993915</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="1"/>
+        <v>243.07075872276286</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="1"/>
+        <v>275.95444274078449</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="1"/>
+        <v>313.2867765276186</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="1"/>
+        <v>355.66959303953337</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="1"/>
+        <v>403.78614384879813</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="1"/>
+        <v>458.41211381305715</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="1"/>
+        <v>520.42812585774357</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="1"/>
+        <v>590.83393746059596</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="1"/>
+        <v>670.76455769919698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>223.9</v>
       </c>
@@ -6012,7 +7259,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>230</v>
       </c>
@@ -6022,8 +7269,14 @@
       <c r="C9" s="7">
         <v>2003</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>239</v>
       </c>
@@ -6034,7 +7287,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>248.9</v>
       </c>
@@ -6044,8 +7297,14 @@
       <c r="C11" s="7">
         <v>2005</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>266.2</v>
       </c>
@@ -6056,7 +7315,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>281.8</v>
       </c>
@@ -6066,8 +7325,15 @@
       <c r="C13" s="7">
         <v>2007</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G13" s="7">
+        <f>LN(T3/E3)/F6</f>
+        <v>0.12688320044641879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>327.9</v>
       </c>
@@ -6078,7 +7344,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>356.2</v>
       </c>
@@ -6088,8 +7354,11 @@
       <c r="C15" s="7">
         <v>2009</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F15" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>365.5</v>
       </c>
@@ -6226,5 +7495,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDE52F4-3A8A-4FE2-B428-F161626D1DB0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>